--- a/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/Table17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb154/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1B409-7DB4-4446-BB05-6B7996A022F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D7432A-3B73-DC48-8745-57E9FE356006}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24300" yWindow="460" windowWidth="25020" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="57">
   <si>
     <t>Pounds</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>Anchovy</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>Rockfish</t>
@@ -559,13 +556,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A68" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -1468,7 +1465,7 @@
         <v>48</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="2">
         <v>17987</v>
@@ -1893,9 +1890,6 @@
       </c>
     </row>
     <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="B96" s="3" t="s">
         <v>51</v>
       </c>
@@ -1910,10 +1904,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C97" s="2">
         <v>14183162</v>
